--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3149.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3149.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.268745172084918</v>
+        <v>1.013269782066345</v>
       </c>
       <c r="B1">
-        <v>2.606158071388579</v>
+        <v>1.579648494720459</v>
       </c>
       <c r="C1">
-        <v>3.268330441969475</v>
+        <v>3.725919723510742</v>
       </c>
       <c r="D1">
-        <v>3.779896428369323</v>
+        <v>3.026717662811279</v>
       </c>
       <c r="E1">
-        <v>2.386728597701607</v>
+        <v>1.421087861061096</v>
       </c>
     </row>
   </sheetData>
